--- a/output/source_code_counter_list.xlsx
+++ b/output/source_code_counter_list.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     </row>
     <row r="10">
       <c r="B10" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="11">
       <c r="B11" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="12">
       <c r="B12" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
     </row>
     <row r="13">
       <c r="B13" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="14">
       <c r="B14" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     </row>
     <row r="15">
       <c r="B15" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
     </row>
     <row r="16">
       <c r="B16" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
     </row>
     <row r="17">
       <c r="B17" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="18">
       <c r="B18" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
     </row>
     <row r="19">
       <c r="B19" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
     </row>
     <row r="20">
       <c r="B20" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="21">
       <c r="B21" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="22">
       <c r="B22" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="23">
       <c r="B23" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="24">
       <c r="B24" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="25">
       <c r="B25" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="26">
       <c r="B26" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="27">
       <c r="B27" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="28">
       <c r="B28" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
